--- a/Firewall-policies/Skybox_vLab_1.2.xlsx
+++ b/Firewall-policies/Skybox_vLab_1.2.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743C1814-E252-4069-B70C-8B64FA073D98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E6DB04-58AC-416B-B92A-7BE3FC53392B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FortiBranch" sheetId="3" r:id="rId1"/>
-    <sheet name="CPMAN" sheetId="1" r:id="rId2"/>
+    <sheet name="FortiGW" sheetId="3" r:id="rId1"/>
+    <sheet name="CPMGMT" sheetId="1" r:id="rId2"/>
     <sheet name="AUX" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>Source</t>
   </si>
@@ -57,43 +57,46 @@
     <t>All_Internet</t>
   </si>
   <si>
-    <t>DMZ</t>
-  </si>
-  <si>
     <t>http,https</t>
   </si>
   <si>
-    <t>ws12c</t>
-  </si>
-  <si>
     <t>telnet,ssh,http,https,nbsession</t>
   </si>
   <si>
-    <t>webbranch</t>
-  </si>
-  <si>
-    <t>webmain</t>
-  </si>
-  <si>
-    <t>Internal DB</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
     <t>http,https,mysql</t>
   </si>
   <si>
-    <t>jb-m</t>
-  </si>
-  <si>
-    <t>jb-m1</t>
-  </si>
-  <si>
     <t>SSH</t>
   </si>
   <si>
-    <t>w10-c</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>FortiGW</t>
+  </si>
+  <si>
+    <t>FortiWebSRV</t>
+  </si>
+  <si>
+    <t>SecOps01</t>
+  </si>
+  <si>
+    <t>SecOps02</t>
+  </si>
+  <si>
+    <t>Win10-C</t>
+  </si>
+  <si>
+    <t>CP-F5</t>
+  </si>
+  <si>
+    <t>Win2012-C</t>
+  </si>
+  <si>
+    <t>LinuxWeb04</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD0F028-4C1A-4F7C-8E95-263A98B92D2D}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,13 +452,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -466,13 +469,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -483,13 +486,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -500,19 +503,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -543,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +601,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -607,13 +615,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -624,13 +632,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -641,13 +649,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>

--- a/Firewall-policies/Skybox_vLab_1.2.xlsx
+++ b/Firewall-policies/Skybox_vLab_1.2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E6DB04-58AC-416B-B92A-7BE3FC53392B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B1B3DD-E828-4284-8B57-5F6BAE958DA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FortiGW" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Source</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>LinuxWeb04</t>
+  </si>
+  <si>
+    <t>FortiDMZ</t>
   </si>
 </sst>
 </file>
@@ -419,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD0F028-4C1A-4F7C-8E95-263A98B92D2D}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +458,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -551,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>

--- a/Firewall-policies/Skybox_vLab_1.2.xlsx
+++ b/Firewall-policies/Skybox_vLab_1.2.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B1B3DD-E828-4284-8B57-5F6BAE958DA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9EEC88-F846-4926-B924-4DBA150313FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FortiGW" sheetId="3" r:id="rId1"/>
-    <sheet name="CPMGMT" sheetId="1" r:id="rId2"/>
+    <sheet name="Fortinet_1" sheetId="3" r:id="rId1"/>
+    <sheet name="WANCPFW" sheetId="1" r:id="rId2"/>
     <sheet name="AUX" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -75,31 +75,31 @@
     <t>F</t>
   </si>
   <si>
-    <t>FortiGW</t>
-  </si>
-  <si>
-    <t>FortiWebSRV</t>
-  </si>
-  <si>
     <t>SecOps01</t>
   </si>
   <si>
     <t>SecOps02</t>
   </si>
   <si>
-    <t>Win10-C</t>
-  </si>
-  <si>
-    <t>CP-F5</t>
-  </si>
-  <si>
-    <t>Win2012-C</t>
-  </si>
-  <si>
-    <t>LinuxWeb04</t>
-  </si>
-  <si>
-    <t>FortiDMZ</t>
+    <t>Internal DB</t>
+  </si>
+  <si>
+    <t>w10c</t>
+  </si>
+  <si>
+    <t>InternalDB_1</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
+    <t>ws12c</t>
+  </si>
+  <si>
+    <t>webmain</t>
+  </si>
+  <si>
+    <t>Fortinet_1</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -472,10 +472,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -489,10 +489,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -506,10 +506,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -555,7 +555,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -638,7 +638,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>

--- a/Firewall-policies/Skybox_vLab_1.2.xlsx
+++ b/Firewall-policies/Skybox_vLab_1.2.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9EEC88-F846-4926-B924-4DBA150313FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749FC2C4-49BB-4B2F-97FB-712CD76D3B16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fortinet_1" sheetId="3" r:id="rId1"/>
-    <sheet name="WANCPFW" sheetId="1" r:id="rId2"/>
+    <sheet name="CPMGMT" sheetId="1" r:id="rId2"/>
     <sheet name="AUX" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -422,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD0F028-4C1A-4F7C-8E95-263A98B92D2D}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Firewall-policies/Skybox_vLab_1.2.xlsx
+++ b/Firewall-policies/Skybox_vLab_1.2.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749FC2C4-49BB-4B2F-97FB-712CD76D3B16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D63D0FE-5159-4674-8E83-243F905492AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fortinet_1" sheetId="3" r:id="rId1"/>
+    <sheet name="Fortinet1" sheetId="3" r:id="rId1"/>
     <sheet name="CPMGMT" sheetId="1" r:id="rId2"/>
     <sheet name="AUX" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -81,9 +81,6 @@
     <t>SecOps02</t>
   </si>
   <si>
-    <t>Internal DB</t>
-  </si>
-  <si>
     <t>w10c</t>
   </si>
   <si>
@@ -99,7 +96,10 @@
     <t>webmain</t>
   </si>
   <si>
-    <t>Fortinet_1</t>
+    <t>Fortinet1</t>
+  </si>
+  <si>
+    <t>Internal_DB</t>
   </si>
 </sst>
 </file>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD0F028-4C1A-4F7C-8E95-263A98B92D2D}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -475,7 +475,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -492,7 +492,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -506,10 +506,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>

--- a/Firewall-policies/Skybox_vLab_1.2.xlsx
+++ b/Firewall-policies/Skybox_vLab_1.2.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D63D0FE-5159-4674-8E83-243F905492AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3702921-C6AC-4B18-A0C7-BB8CA3866016}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fortinet1" sheetId="3" r:id="rId1"/>
-    <sheet name="CPMGMT" sheetId="1" r:id="rId2"/>
+    <sheet name="Fortinet-1" sheetId="3" r:id="rId1"/>
+    <sheet name="CPMAN" sheetId="1" r:id="rId2"/>
     <sheet name="AUX" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -96,10 +96,10 @@
     <t>webmain</t>
   </si>
   <si>
-    <t>Fortinet1</t>
-  </si>
-  <si>
     <t>Internal_DB</t>
+  </si>
+  <si>
+    <t>Fortinet-1</t>
   </si>
 </sst>
 </file>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD0F028-4C1A-4F7C-8E95-263A98B92D2D}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>

--- a/Firewall-policies/Skybox_vLab_1.2.xlsx
+++ b/Firewall-policies/Skybox_vLab_1.2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3702921-C6AC-4B18-A0C7-BB8CA3866016}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864ED3A-8432-416A-B56B-1D7F60CBEF13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Source</t>
   </si>
@@ -99,7 +99,13 @@
     <t>Internal_DB</t>
   </si>
   <si>
-    <t>Fortinet-1</t>
+    <t>gw_0</t>
+  </si>
+  <si>
+    <t>InternalDB1</t>
+  </si>
+  <si>
+    <t>Fortinet1</t>
   </si>
 </sst>
 </file>
@@ -552,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -638,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -655,7 +661,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -664,6 +670,23 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
